--- a/correlation/correlation 5 and 6/correlation 5 and 6 - commons-lang.xlsx
+++ b/correlation/correlation 5 and 6/correlation 5 and 6 - commons-lang.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shalin_patel/Downloads/soen6611-measurement-metrics/correlation/correlation 5 and 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC213121-D4AE-477B-8EF0-0801926962F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A96D351-7160-5048-B27D-2A003489DF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Sl.No</t>
   </si>
@@ -49,6 +51,9 @@
   </si>
   <si>
     <t>Metrics 6</t>
+  </si>
+  <si>
+    <t>Metric 5</t>
   </si>
 </sst>
 </file>
@@ -308,11 +313,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$15</c:f>
+              <c:f>Sheet1!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Metrics 5</c:v>
+                  <c:v>Metric 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -346,49 +351,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4.7826294896934338E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.18674136321195145</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27987455034860842</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7826294896934338E-2</c:v>
+                  <c:v>0.45399981532210903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45399981532210903</c:v>
+                  <c:v>0.24689964587536503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24689964587536503</c:v>
+                  <c:v>1.2920647841282763E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2920647841282763E-2</c:v>
+                  <c:v>0.27987455034860842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$D$21</c:f>
+              <c:f>Sheet1!$B$16:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>104.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>108.46</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>680.59</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.87</c:v>
+                  <c:v>121.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121.68</c:v>
+                  <c:v>187.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187.82</c:v>
+                  <c:v>443.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>443.69</c:v>
+                  <c:v>680.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,7 +592,527 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Apache Common Lang</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Maintenance Effort vs Defect Density</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Metrics 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>104.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>443.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>680.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.7826294896934338E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18674136321195145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45399981532210903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24689964587536503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2920647841282763E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27987455034860842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D591-6C4E-972B-C8F51320BB1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1337831120"/>
+        <c:axId val="1337832752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1337831120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Maintenance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Effort </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1337832752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1337832752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Defect Density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1337831120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1143,6 +1668,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1176,6 +2217,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF63735F-FC4C-714E-B1EB-320ABE29F577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1388,15 +2465,15 @@
   <dimension ref="A3:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="14.42578125" style="12"/>
+    <col min="6" max="6" width="14.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +2496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1430,7 +2507,7 @@
         <v>3046</v>
       </c>
       <c r="D4" s="10">
-        <f t="shared" ref="D2:D9" si="0">78+(0.01*C4)</f>
+        <f t="shared" ref="D4:D9" si="0">78+(0.01*C4)</f>
         <v>108.46000000000001</v>
       </c>
       <c r="E4" s="7">
@@ -1443,7 +2520,7 @@
         <v>0.18674136321195145</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1467,7 +2544,7 @@
         <v>0.27987455034860842</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1491,7 +2568,7 @@
         <v>4.7826294896934338E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1515,7 +2592,7 @@
         <v>0.45399981532210903</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1539,7 +2616,7 @@
         <v>0.24689964587536503</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1563,70 +2640,73 @@
         <v>1.2920647841282763E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>3</v>
-      </c>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <v>104.87</v>
+      </c>
       <c r="C16" s="7">
-        <v>0.18674136321195145</v>
-      </c>
-      <c r="D16" s="10">
-        <v>108.46</v>
+        <v>4.7826294896934338E-2</v>
       </c>
       <c r="F16"/>
     </row>
-    <row r="17" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <v>108.46</v>
+      </c>
       <c r="C17" s="7">
-        <v>0.27987455034860842</v>
-      </c>
-      <c r="D17" s="10">
-        <v>680.59</v>
+        <v>0.18674136321195145</v>
       </c>
       <c r="F17"/>
     </row>
-    <row r="18" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <v>121.68</v>
+      </c>
       <c r="C18" s="7">
-        <v>4.7826294896934338E-2</v>
-      </c>
-      <c r="D18" s="10">
-        <v>104.87</v>
+        <v>0.45399981532210903</v>
       </c>
       <c r="F18"/>
     </row>
-    <row r="19" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <v>187.82</v>
+      </c>
       <c r="C19" s="7">
-        <v>0.45399981532210903</v>
-      </c>
-      <c r="D19" s="10">
-        <v>121.68</v>
+        <v>0.24689964587536503</v>
       </c>
       <c r="F19"/>
     </row>
-    <row r="20" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <v>443.69</v>
+      </c>
       <c r="C20" s="7">
-        <v>0.24689964587536503</v>
-      </c>
-      <c r="D20" s="10">
-        <v>187.82</v>
+        <v>1.2920647841282763E-2</v>
       </c>
       <c r="F20"/>
     </row>
-    <row r="21" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <v>680.59</v>
+      </c>
       <c r="C21" s="7">
-        <v>1.2920647841282763E-2</v>
-      </c>
-      <c r="D21" s="10">
-        <v>443.69</v>
+        <v>0.27987455034860842</v>
       </c>
       <c r="F21"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C16:D21">
+    <sortCondition ref="D15"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/correlation/correlation 5 and 6/correlation 5 and 6 - commons-lang.xlsx
+++ b/correlation/correlation 5 and 6/correlation 5 and 6 - commons-lang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shalin_patel/Downloads/soen6611-measurement-metrics/correlation/correlation 5 and 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A96D351-7160-5048-B27D-2A003489DF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1E12CB-AF5D-EC4B-B60A-2A5780CFDDA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2465,7 +2465,7 @@
   <dimension ref="A3:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2655,6 +2655,10 @@
       </c>
       <c r="C16" s="7">
         <v>4.7826294896934338E-2</v>
+      </c>
+      <c r="D16">
+        <f>CORREL(B16:B21,C16:C21)</f>
+        <v>-7.3353082841378703E-2</v>
       </c>
       <c r="F16"/>
     </row>
